--- a/src/Users.xlsx
+++ b/src/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\ConsoleShop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99153E4B-D232-40AE-B3A4-1E4C1375856C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D970E09-269F-4FE1-8014-C551097006E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -40,14 +40,7 @@
     <t>桂林电子科技大学</t>
   </si>
   <si>
-    <t>lianghsuangxiang</t>
-  </si>
-  <si>
-    <t>a1234</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>a8888</t>
+    <t>liangshuangxiang</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1006,7 +999,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1035,8 +1028,8 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="1">
+        <v>1234</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1049,8 +1042,8 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+      <c r="B3" s="1">
+        <v>5678</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
